--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vcan-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vcan-Cd44.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.444734333333333</v>
+        <v>6.264633666666666</v>
       </c>
       <c r="H2">
-        <v>10.334203</v>
+        <v>18.793901</v>
       </c>
       <c r="I2">
-        <v>0.01213700884209764</v>
+        <v>0.01507580695362319</v>
       </c>
       <c r="J2">
-        <v>0.01213700884209764</v>
+        <v>0.0150758069536232</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N2">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O2">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P2">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q2">
-        <v>36.01488921187789</v>
+        <v>273.8218460427628</v>
       </c>
       <c r="R2">
-        <v>324.1340029069009</v>
+        <v>2464.396614384866</v>
       </c>
       <c r="S2">
-        <v>9.955088731641974E-05</v>
+        <v>0.0003747291251970053</v>
       </c>
       <c r="T2">
-        <v>9.955088731641972E-05</v>
+        <v>0.0003747291251970053</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.444734333333333</v>
+        <v>6.264633666666666</v>
       </c>
       <c r="H3">
-        <v>10.334203</v>
+        <v>18.793901</v>
       </c>
       <c r="I3">
-        <v>0.01213700884209764</v>
+        <v>0.01507580695362319</v>
       </c>
       <c r="J3">
-        <v>0.01213700884209764</v>
+        <v>0.0150758069536232</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>502.283203</v>
       </c>
       <c r="O3">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P3">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q3">
-        <v>576.7440648102454</v>
+        <v>1048.873421238322</v>
       </c>
       <c r="R3">
-        <v>5190.696583292209</v>
+        <v>9439.860791144902</v>
       </c>
       <c r="S3">
-        <v>0.001594212412220964</v>
+        <v>0.001435398326551509</v>
       </c>
       <c r="T3">
-        <v>0.001594212412220964</v>
+        <v>0.001435398326551509</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.444734333333333</v>
+        <v>6.264633666666666</v>
       </c>
       <c r="H4">
-        <v>10.334203</v>
+        <v>18.793901</v>
       </c>
       <c r="I4">
-        <v>0.01213700884209764</v>
+        <v>0.01507580695362319</v>
       </c>
       <c r="J4">
-        <v>0.01213700884209764</v>
+        <v>0.0150758069536232</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N4">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O4">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P4">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q4">
-        <v>783.6621726915445</v>
+        <v>2859.097578226545</v>
       </c>
       <c r="R4">
-        <v>7052.959554223899</v>
+        <v>25731.8782040389</v>
       </c>
       <c r="S4">
-        <v>0.002166167003563268</v>
+        <v>0.003912716059091905</v>
       </c>
       <c r="T4">
-        <v>0.002166167003563268</v>
+        <v>0.003912716059091906</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.444734333333333</v>
+        <v>6.264633666666666</v>
       </c>
       <c r="H5">
-        <v>10.334203</v>
+        <v>18.793901</v>
       </c>
       <c r="I5">
-        <v>0.01213700884209764</v>
+        <v>0.01507580695362319</v>
       </c>
       <c r="J5">
-        <v>0.01213700884209764</v>
+        <v>0.0150758069536232</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N5">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O5">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P5">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q5">
-        <v>191.2181432558063</v>
+        <v>711.9659540633414</v>
       </c>
       <c r="R5">
-        <v>1720.963289302257</v>
+        <v>6407.693586570073</v>
       </c>
       <c r="S5">
-        <v>0.0005285573896985816</v>
+        <v>0.0009743356236614584</v>
       </c>
       <c r="T5">
-        <v>0.0005285573896985815</v>
+        <v>0.0009743356236614586</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.444734333333333</v>
+        <v>6.264633666666666</v>
       </c>
       <c r="H6">
-        <v>10.334203</v>
+        <v>18.793901</v>
       </c>
       <c r="I6">
-        <v>0.01213700884209764</v>
+        <v>0.01507580695362319</v>
       </c>
       <c r="J6">
-        <v>0.01213700884209764</v>
+        <v>0.0150758069536232</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N6">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O6">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P6">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q6">
-        <v>2293.453618179762</v>
+        <v>4699.581427689691</v>
       </c>
       <c r="R6">
-        <v>20641.08256361786</v>
+        <v>42296.23284920722</v>
       </c>
       <c r="S6">
-        <v>0.006339470916199544</v>
+        <v>0.00643144461496043</v>
       </c>
       <c r="T6">
-        <v>0.006339470916199543</v>
+        <v>0.006431444614960431</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.444734333333333</v>
+        <v>6.264633666666666</v>
       </c>
       <c r="H7">
-        <v>10.334203</v>
+        <v>18.793901</v>
       </c>
       <c r="I7">
-        <v>0.01213700884209764</v>
+        <v>0.01507580695362319</v>
       </c>
       <c r="J7">
-        <v>0.01213700884209764</v>
+        <v>0.0150758069536232</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N7">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O7">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P7">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q7">
-        <v>509.7572649225013</v>
+        <v>1422.844566102215</v>
       </c>
       <c r="R7">
-        <v>4587.815384302512</v>
+        <v>12805.60109491994</v>
       </c>
       <c r="S7">
-        <v>0.001409050233098863</v>
+        <v>0.001947183204160886</v>
       </c>
       <c r="T7">
-        <v>0.001409050233098862</v>
+        <v>0.001947183204160886</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>460.130753</v>
       </c>
       <c r="I8">
-        <v>0.5404007466934845</v>
+        <v>0.3691007207951812</v>
       </c>
       <c r="J8">
-        <v>0.5404007466934844</v>
+        <v>0.3691007207951813</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N8">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O8">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P8">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q8">
-        <v>1603.56421218675</v>
+        <v>6703.975518840212</v>
       </c>
       <c r="R8">
-        <v>14432.07790968075</v>
+        <v>60335.7796695619</v>
       </c>
       <c r="S8">
-        <v>0.004432506768322857</v>
+        <v>0.00917448668841713</v>
       </c>
       <c r="T8">
-        <v>0.004432506768322856</v>
+        <v>0.00917448668841713</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>460.130753</v>
       </c>
       <c r="I9">
-        <v>0.5404007466934845</v>
+        <v>0.3691007207951812</v>
       </c>
       <c r="J9">
-        <v>0.5404007466934844</v>
+        <v>0.3691007207951813</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>502.283203</v>
       </c>
       <c r="O9">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P9">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q9">
         <v>25679.54982396021</v>
@@ -1013,10 +1013,10 @@
         <v>231115.9484156419</v>
       </c>
       <c r="S9">
-        <v>0.07098236387239334</v>
+        <v>0.03514283239286435</v>
       </c>
       <c r="T9">
-        <v>0.07098236387239333</v>
+        <v>0.03514283239286436</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>460.130753</v>
       </c>
       <c r="I10">
-        <v>0.5404007466934845</v>
+        <v>0.3691007207951812</v>
       </c>
       <c r="J10">
-        <v>0.5404007466934844</v>
+        <v>0.3691007207951813</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N10">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O10">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P10">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q10">
-        <v>34892.58587412851</v>
+        <v>69999.23653795221</v>
       </c>
       <c r="R10">
-        <v>314033.2728671565</v>
+        <v>629993.1288415699</v>
       </c>
       <c r="S10">
-        <v>0.09644866222129764</v>
+        <v>0.09579495957465942</v>
       </c>
       <c r="T10">
-        <v>0.09644866222129761</v>
+        <v>0.09579495957465943</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>460.130753</v>
       </c>
       <c r="I11">
-        <v>0.5404007466934845</v>
+        <v>0.3691007207951812</v>
       </c>
       <c r="J11">
-        <v>0.5404007466934844</v>
+        <v>0.3691007207951813</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N11">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O11">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P11">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q11">
-        <v>8513.994571575191</v>
+        <v>17431.05013448399</v>
       </c>
       <c r="R11">
-        <v>76625.95114417671</v>
+        <v>156879.4512103559</v>
       </c>
       <c r="S11">
-        <v>0.02353403641536003</v>
+        <v>0.02385464221558215</v>
       </c>
       <c r="T11">
-        <v>0.02353403641536002</v>
+        <v>0.02385464221558215</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>460.130753</v>
       </c>
       <c r="I12">
-        <v>0.5404007466934845</v>
+        <v>0.3691007207951812</v>
       </c>
       <c r="J12">
-        <v>0.5404007466934844</v>
+        <v>0.3691007207951813</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N12">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O12">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P12">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q12">
-        <v>102116.103225728</v>
+        <v>115059.770779237</v>
       </c>
       <c r="R12">
-        <v>919044.9290315524</v>
+        <v>1035537.937013133</v>
       </c>
       <c r="S12">
-        <v>0.2822651660986819</v>
+        <v>0.1574609472274829</v>
       </c>
       <c r="T12">
-        <v>0.2822651660986819</v>
+        <v>0.1574609472274829</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>460.130753</v>
       </c>
       <c r="I13">
-        <v>0.5404007466934845</v>
+        <v>0.3691007207951812</v>
       </c>
       <c r="J13">
-        <v>0.5404007466934844</v>
+        <v>0.3691007207951813</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N13">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O13">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P13">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q13">
-        <v>22696.96019673806</v>
+        <v>34835.47889299677</v>
       </c>
       <c r="R13">
-        <v>204272.6417706425</v>
+        <v>313519.3100369709</v>
       </c>
       <c r="S13">
-        <v>0.06273801131742868</v>
+        <v>0.04767285269617529</v>
       </c>
       <c r="T13">
-        <v>0.06273801131742866</v>
+        <v>0.0476728526961753</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>91.68981500000001</v>
+        <v>237.6821393333333</v>
       </c>
       <c r="H14">
-        <v>275.069445</v>
+        <v>713.046418</v>
       </c>
       <c r="I14">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550865</v>
       </c>
       <c r="J14">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550868</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N14">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O14">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P14">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q14">
-        <v>958.6221198913685</v>
+        <v>10388.88554807964</v>
       </c>
       <c r="R14">
-        <v>8627.599079022315</v>
+        <v>93499.96993271679</v>
       </c>
       <c r="S14">
-        <v>0.002649784151074362</v>
+        <v>0.01421733893575358</v>
       </c>
       <c r="T14">
-        <v>0.002649784151074361</v>
+        <v>0.01421733893575359</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>91.68981500000001</v>
+        <v>237.6821393333333</v>
       </c>
       <c r="H15">
-        <v>275.069445</v>
+        <v>713.046418</v>
       </c>
       <c r="I15">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550865</v>
       </c>
       <c r="J15">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550868</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>502.283203</v>
       </c>
       <c r="O15">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P15">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q15">
-        <v>15351.41798689248</v>
+        <v>39794.58208007966</v>
       </c>
       <c r="R15">
-        <v>138162.7618820324</v>
+        <v>358151.2387207169</v>
       </c>
       <c r="S15">
-        <v>0.04243376324635116</v>
+        <v>0.05445945656257035</v>
       </c>
       <c r="T15">
-        <v>0.04243376324635115</v>
+        <v>0.05445945656257038</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>91.68981500000001</v>
+        <v>237.6821393333333</v>
       </c>
       <c r="H16">
-        <v>275.069445</v>
+        <v>713.046418</v>
       </c>
       <c r="I16">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550865</v>
       </c>
       <c r="J16">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550868</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N16">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O16">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P16">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q16">
-        <v>20859.03662911957</v>
+        <v>108475.0466051148</v>
       </c>
       <c r="R16">
-        <v>187731.3296620761</v>
+        <v>976275.4194460327</v>
       </c>
       <c r="S16">
-        <v>0.05765769798091458</v>
+        <v>0.1484496577153705</v>
       </c>
       <c r="T16">
-        <v>0.05765769798091457</v>
+        <v>0.1484496577153706</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>91.68981500000001</v>
+        <v>237.6821393333333</v>
       </c>
       <c r="H17">
-        <v>275.069445</v>
+        <v>713.046418</v>
       </c>
       <c r="I17">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550865</v>
       </c>
       <c r="J17">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550868</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N17">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O17">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P17">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q17">
-        <v>5089.726661969496</v>
+        <v>27012.2085501471</v>
       </c>
       <c r="R17">
-        <v>45807.53995772546</v>
+        <v>243109.8769513239</v>
       </c>
       <c r="S17">
-        <v>0.01406881477314096</v>
+        <v>0.0369665949810845</v>
       </c>
       <c r="T17">
-        <v>0.01406881477314095</v>
+        <v>0.03696659498108452</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>91.68981500000001</v>
+        <v>237.6821393333333</v>
       </c>
       <c r="H18">
-        <v>275.069445</v>
+        <v>713.046418</v>
       </c>
       <c r="I18">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550865</v>
       </c>
       <c r="J18">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550868</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N18">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O18">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P18">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q18">
-        <v>61045.73462374884</v>
+        <v>178303.5732237528</v>
       </c>
       <c r="R18">
-        <v>549411.6116137395</v>
+        <v>1604732.159013775</v>
       </c>
       <c r="S18">
-        <v>0.1687401289206967</v>
+        <v>0.2440109983160454</v>
       </c>
       <c r="T18">
-        <v>0.1687401289206966</v>
+        <v>0.2440109983160455</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>91.68981500000001</v>
+        <v>237.6821393333333</v>
       </c>
       <c r="H19">
-        <v>275.069445</v>
+        <v>713.046418</v>
       </c>
       <c r="I19">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550865</v>
       </c>
       <c r="J19">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550868</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N19">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O19">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P19">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q19">
-        <v>13568.40464106912</v>
+        <v>53983.16300750701</v>
       </c>
       <c r="R19">
-        <v>122115.6417696221</v>
+        <v>485848.4670675631</v>
       </c>
       <c r="S19">
-        <v>0.03750523050453188</v>
+        <v>0.0738767331442622</v>
       </c>
       <c r="T19">
-        <v>0.03750523050453188</v>
+        <v>0.07387673314426223</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.18997866666666</v>
+        <v>6.807599333333333</v>
       </c>
       <c r="H20">
-        <v>54.569936</v>
+        <v>20.422798</v>
       </c>
       <c r="I20">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="J20">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N20">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O20">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P20">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q20">
-        <v>190.1772395354791</v>
+        <v>297.5544167077631</v>
       </c>
       <c r="R20">
-        <v>1711.595155819312</v>
+        <v>2677.989750369868</v>
       </c>
       <c r="S20">
-        <v>0.0005256801661047529</v>
+        <v>0.0004072074886749244</v>
       </c>
       <c r="T20">
-        <v>0.0005256801661047529</v>
+        <v>0.0004072074886749245</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.18997866666666</v>
+        <v>6.807599333333333</v>
       </c>
       <c r="H21">
-        <v>54.569936</v>
+        <v>20.422798</v>
       </c>
       <c r="I21">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="J21">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>502.283203</v>
       </c>
       <c r="O21">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P21">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q21">
-        <v>3045.506915731668</v>
+        <v>1139.780932629111</v>
       </c>
       <c r="R21">
-        <v>27409.56224158501</v>
+        <v>10258.02839366199</v>
       </c>
       <c r="S21">
-        <v>0.00841826595677515</v>
+        <v>0.001559806560261198</v>
       </c>
       <c r="T21">
-        <v>0.00841826595677515</v>
+        <v>0.001559806560261199</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.18997866666666</v>
+        <v>6.807599333333333</v>
       </c>
       <c r="H22">
-        <v>54.569936</v>
+        <v>20.422798</v>
       </c>
       <c r="I22">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="J22">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N22">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O22">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P22">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q22">
-        <v>4138.141529578868</v>
+        <v>3106.900068400377</v>
       </c>
       <c r="R22">
-        <v>37243.27376620982</v>
+        <v>27962.1006156034</v>
       </c>
       <c r="S22">
-        <v>0.0114384819758001</v>
+        <v>0.004251837322447854</v>
       </c>
       <c r="T22">
-        <v>0.0114384819758001</v>
+        <v>0.004251837322447855</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.18997866666666</v>
+        <v>6.807599333333333</v>
       </c>
       <c r="H23">
-        <v>54.569936</v>
+        <v>20.422798</v>
       </c>
       <c r="I23">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="J23">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N23">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O23">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P23">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q23">
-        <v>1009.730681650843</v>
+        <v>773.6731646459616</v>
       </c>
       <c r="R23">
-        <v>9087.576134857583</v>
+        <v>6963.058481813654</v>
       </c>
       <c r="S23">
-        <v>0.002791056352210099</v>
+        <v>0.001058782826739483</v>
       </c>
       <c r="T23">
-        <v>0.002791056352210098</v>
+        <v>0.001058782826739483</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.18997866666666</v>
+        <v>6.807599333333333</v>
       </c>
       <c r="H24">
-        <v>54.569936</v>
+        <v>20.422798</v>
       </c>
       <c r="I24">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="J24">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N24">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O24">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P24">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q24">
-        <v>12110.62112511609</v>
+        <v>5106.901551852283</v>
       </c>
       <c r="R24">
-        <v>108995.5901260448</v>
+        <v>45962.11396667055</v>
       </c>
       <c r="S24">
-        <v>0.03347568478874186</v>
+        <v>0.006988868049242393</v>
       </c>
       <c r="T24">
-        <v>0.03347568478874186</v>
+        <v>0.006988868049242394</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.18997866666666</v>
+        <v>6.807599333333333</v>
       </c>
       <c r="H25">
-        <v>54.569936</v>
+        <v>20.422798</v>
       </c>
       <c r="I25">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="J25">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N25">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O25">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P25">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q25">
-        <v>2691.781971222739</v>
+        <v>1546.164745621635</v>
       </c>
       <c r="R25">
-        <v>24226.03774100465</v>
+        <v>13915.48271059472</v>
       </c>
       <c r="S25">
-        <v>0.007440513897490694</v>
+        <v>0.002115948639272418</v>
       </c>
       <c r="T25">
-        <v>0.007440513897490694</v>
+        <v>0.002115948639272419</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.759714000000001</v>
+        <v>6.189380333333333</v>
       </c>
       <c r="H26">
-        <v>26.279142</v>
+        <v>18.568141</v>
       </c>
       <c r="I26">
-        <v>0.03086354882101112</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="J26">
-        <v>0.03086354882101111</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N26">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O26">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P26">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q26">
-        <v>91.58329749407933</v>
+        <v>270.5325864067451</v>
       </c>
       <c r="R26">
-        <v>824.249677446714</v>
+        <v>2434.793277660706</v>
       </c>
       <c r="S26">
-        <v>0.0002531508142441361</v>
+        <v>0.000370227726189717</v>
       </c>
       <c r="T26">
-        <v>0.000253150814244136</v>
+        <v>0.0003702277261897171</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>8.759714000000001</v>
+        <v>6.189380333333333</v>
       </c>
       <c r="H27">
-        <v>26.279142</v>
+        <v>18.568141</v>
       </c>
       <c r="I27">
-        <v>0.03086354882101112</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="J27">
-        <v>0.03086354882101111</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>502.283203</v>
       </c>
       <c r="O27">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P27">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q27">
-        <v>1466.619068427981</v>
+        <v>1036.273926137291</v>
       </c>
       <c r="R27">
-        <v>13199.57161585183</v>
+        <v>9326.465335235624</v>
       </c>
       <c r="S27">
-        <v>0.004053968589441998</v>
+        <v>0.001418155736723976</v>
       </c>
       <c r="T27">
-        <v>0.004053968589441997</v>
+        <v>0.001418155736723976</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>8.759714000000001</v>
+        <v>6.189380333333333</v>
       </c>
       <c r="H28">
-        <v>26.279142</v>
+        <v>18.568141</v>
       </c>
       <c r="I28">
-        <v>0.03086354882101112</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="J28">
-        <v>0.03086354882101111</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N28">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O28">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P28">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q28">
-        <v>1992.797075516092</v>
+        <v>2824.752932627931</v>
       </c>
       <c r="R28">
-        <v>17935.17367964482</v>
+        <v>25422.77639365138</v>
       </c>
       <c r="S28">
-        <v>0.005508408368052538</v>
+        <v>0.003865714918801734</v>
       </c>
       <c r="T28">
-        <v>0.005508408368052537</v>
+        <v>0.003865714918801735</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>8.759714000000001</v>
+        <v>6.189380333333333</v>
       </c>
       <c r="H29">
-        <v>26.279142</v>
+        <v>18.568141</v>
       </c>
       <c r="I29">
-        <v>0.03086354882101112</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="J29">
-        <v>0.03086354882101111</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N29">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O29">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P29">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q29">
-        <v>486.2541155419221</v>
+        <v>703.4135287957325</v>
       </c>
       <c r="R29">
-        <v>4376.287039877298</v>
+        <v>6330.721759161594</v>
       </c>
       <c r="S29">
-        <v>0.001344083786532775</v>
+        <v>0.0009626315069696758</v>
       </c>
       <c r="T29">
-        <v>0.001344083786532775</v>
+        <v>0.000962631506969676</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>8.759714000000001</v>
+        <v>6.189380333333333</v>
       </c>
       <c r="H30">
-        <v>26.279142</v>
+        <v>18.568141</v>
       </c>
       <c r="I30">
-        <v>0.03086354882101112</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="J30">
-        <v>0.03086354882101111</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N30">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O30">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P30">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q30">
-        <v>5832.089160872856</v>
+        <v>4643.128139832358</v>
       </c>
       <c r="R30">
-        <v>52488.8024478557</v>
+        <v>41788.15325849123</v>
       </c>
       <c r="S30">
-        <v>0.01612082290348641</v>
+        <v>0.006354187480517004</v>
       </c>
       <c r="T30">
-        <v>0.0161208229034864</v>
+        <v>0.006354187480517005</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>8.759714000000001</v>
+        <v>6.189380333333333</v>
       </c>
       <c r="H31">
-        <v>26.279142</v>
+        <v>18.568141</v>
       </c>
       <c r="I31">
-        <v>0.03086354882101112</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="J31">
-        <v>0.03086354882101111</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N31">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O31">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P31">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q31">
-        <v>1296.276408585165</v>
+        <v>1405.752777162642</v>
       </c>
       <c r="R31">
-        <v>11666.48767726648</v>
+        <v>12651.77499446378</v>
       </c>
       <c r="S31">
-        <v>0.00358311435925326</v>
+        <v>0.001923792845758373</v>
       </c>
       <c r="T31">
-        <v>0.00358311435925326</v>
+        <v>0.001923792845758373</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>8.359539333333332</v>
+        <v>5.221508333333333</v>
       </c>
       <c r="H32">
-        <v>25.078618</v>
+        <v>15.664525</v>
       </c>
       <c r="I32">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451007</v>
       </c>
       <c r="J32">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451008</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N32">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O32">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P32">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q32">
-        <v>87.39944907768954</v>
+        <v>228.2277188159611</v>
       </c>
       <c r="R32">
-        <v>786.5950416992059</v>
+        <v>2054.04946934365</v>
       </c>
       <c r="S32">
-        <v>0.0002415859911566993</v>
+        <v>0.0003123329078873311</v>
       </c>
       <c r="T32">
-        <v>0.0002415859911566993</v>
+        <v>0.0003123329078873312</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>8.359539333333332</v>
+        <v>5.221508333333333</v>
       </c>
       <c r="H33">
-        <v>25.078618</v>
+        <v>15.664525</v>
       </c>
       <c r="I33">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451007</v>
       </c>
       <c r="J33">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451008</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>502.283203</v>
       </c>
       <c r="O33">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P33">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q33">
-        <v>1399.618730650384</v>
+        <v>874.2253100526195</v>
       </c>
       <c r="R33">
-        <v>12596.56857585345</v>
+        <v>7868.027790473576</v>
       </c>
       <c r="S33">
-        <v>0.003868768989437124</v>
+        <v>0.001196389880484327</v>
       </c>
       <c r="T33">
-        <v>0.003868768989437124</v>
+        <v>0.001196389880484327</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>8.359539333333332</v>
+        <v>5.221508333333333</v>
       </c>
       <c r="H34">
-        <v>25.078618</v>
+        <v>15.664525</v>
       </c>
       <c r="I34">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451007</v>
       </c>
       <c r="J34">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451008</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N34">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O34">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P34">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q34">
-        <v>1901.759068404334</v>
+        <v>2383.028701256284</v>
       </c>
       <c r="R34">
-        <v>17115.83161563901</v>
+        <v>21447.25831130655</v>
       </c>
       <c r="S34">
-        <v>0.005256764823234829</v>
+        <v>0.003261208970162535</v>
       </c>
       <c r="T34">
-        <v>0.005256764823234829</v>
+        <v>0.003261208970162536</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>8.359539333333332</v>
+        <v>5.221508333333333</v>
       </c>
       <c r="H35">
-        <v>25.078618</v>
+        <v>15.664525</v>
       </c>
       <c r="I35">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451007</v>
       </c>
       <c r="J35">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451008</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N35">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O35">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P35">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q35">
-        <v>464.0403105475713</v>
+        <v>593.4163687769806</v>
       </c>
       <c r="R35">
-        <v>4176.362794928142</v>
+        <v>5340.747318992826</v>
       </c>
       <c r="S35">
-        <v>0.001282681293112576</v>
+        <v>0.0008120988152079501</v>
       </c>
       <c r="T35">
-        <v>0.001282681293112576</v>
+        <v>0.0008120988152079503</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>8.359539333333332</v>
+        <v>5.221508333333333</v>
       </c>
       <c r="H36">
-        <v>25.078618</v>
+        <v>15.664525</v>
       </c>
       <c r="I36">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451007</v>
       </c>
       <c r="J36">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451008</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N36">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O36">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P36">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q36">
-        <v>5565.658734500193</v>
+        <v>3917.053237833958</v>
       </c>
       <c r="R36">
-        <v>50090.92861050174</v>
+        <v>35253.47914050562</v>
       </c>
       <c r="S36">
-        <v>0.01538436678953165</v>
+        <v>0.005360543559166511</v>
       </c>
       <c r="T36">
-        <v>0.01538436678953165</v>
+        <v>0.005360543559166512</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>8.359539333333332</v>
+        <v>5.221508333333333</v>
       </c>
       <c r="H37">
-        <v>25.078618</v>
+        <v>15.664525</v>
       </c>
       <c r="I37">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451007</v>
       </c>
       <c r="J37">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451008</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N37">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O37">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P37">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q37">
-        <v>1237.057925000719</v>
+        <v>1185.926449055058</v>
       </c>
       <c r="R37">
-        <v>11133.52132500648</v>
+        <v>10673.33804149553</v>
       </c>
       <c r="S37">
-        <v>0.003419425043101759</v>
+        <v>0.001622957361601421</v>
       </c>
       <c r="T37">
-        <v>0.003419425043101759</v>
+        <v>0.001622957361601422</v>
       </c>
     </row>
   </sheetData>
